--- a/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender April Final.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender April Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Pascal Govender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD8CEC7-C908-4905-80D5-D765513206C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21DDFD-6A32-4B4E-9BB4-421E316A88D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="396" yWindow="864" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apr" sheetId="10" r:id="rId1"/>
@@ -3805,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J141"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
